--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -697,7 +697,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -723,7 +723,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -905,7 +905,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -957,7 +957,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1113,7 +1113,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1269,7 +1269,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1581,7 +1581,7 @@
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>

--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -271,10 +271,22 @@
     <t>PMMA</t>
   </si>
   <si>
+    <t>ABS Black</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>ABS Clear</t>
+  </si>
+  <si>
+    <t>PEEK Black</t>
+  </si>
+  <si>
     <t>Polyetheretherketone (PEEK)</t>
   </si>
   <si>
-    <t>Copper</t>
+    <t>PEEK Natural</t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1117,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1365,7 +1377,7 @@
         <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I27" s="1">
         <v>1</v>
@@ -1391,7 +1403,7 @@
         <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I28" s="1">
         <v>1</v>
@@ -1417,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I29" s="1">
         <v>1</v>
@@ -1547,7 +1559,7 @@
         <v>80</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>

--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP 02/SHOPPING_LISTS/SUPE/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_2179A4C4886BCD247060754B99D342BD46668889" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62418693-7829-4C5D-9BAB-ED0B6A261A7F}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -31,15 +37,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>VendorNo</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
     <t>MATERIAL</t>
   </si>
   <si>
@@ -256,12 +253,6 @@
     <t>PATCH PANEL FOR PSU</t>
   </si>
   <si>
-    <t>VITROTEM</t>
-  </si>
-  <si>
-    <t>SUPE</t>
-  </si>
-  <si>
     <t>6061 Alloy</t>
   </si>
   <si>
@@ -281,9 +272,6 @@
   </si>
   <si>
     <t>PEEK Black</t>
-  </si>
-  <si>
-    <t>Polyetheretherketone (PEEK)</t>
   </si>
   <si>
     <t>PEEK Natural</t>
@@ -292,8 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +358,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,9 +444,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,6 +496,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,28 +689,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="26" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.73046875" customWidth="1"/>
+    <col min="4" max="4" width="34.73046875" customWidth="1"/>
+    <col min="5" max="5" width="24.73046875" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" customWidth="1"/>
+    <col min="7" max="23" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,928 +727,604 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B2" s="1">
         <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B3" s="1">
         <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>78</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" s="1">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="1">
         <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" s="1">
         <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
+        <v>81</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20" s="1">
         <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="1">
         <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
+        <v>82</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28" s="1">
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
+        <v>82</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="1">
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30" s="1">
         <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I30" s="1">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31" s="1">
         <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32" s="1">
         <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33" s="1">
         <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9">
+        <v>76</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34" s="1">
         <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9">
+        <v>83</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35" s="1">
         <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" s="1">
+        <v>76</v>
+      </c>
+      <c r="F35" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36" s="1">
         <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I36" s="1">
+        <v>76</v>
+      </c>
+      <c r="F36" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -694,7 +694,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F36"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>

--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee1e2ca77da94d7e/Nascent Ventures BV/Participaties/Vitrotem BV/13 R^0D/1. Device/MVP 02/SHOPPING_LISTS/SUPE/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2179A4C4886BCD247060754B99D342BD46668889" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62418693-7829-4C5D-9BAB-ED0B6A261A7F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
   <si>
     <t>DOCUMENT PREVIEW</t>
   </si>
@@ -37,6 +31,15 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>VendorNo</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
     <t>MATERIAL</t>
   </si>
   <si>
@@ -253,6 +256,12 @@
     <t>PATCH PANEL FOR PSU</t>
   </si>
   <si>
+    <t>VITROTEM</t>
+  </si>
+  <si>
+    <t>SUPE</t>
+  </si>
+  <si>
     <t>6061 Alloy</t>
   </si>
   <si>
@@ -269,9 +278,6 @@
   </si>
   <si>
     <t>ABS Clear</t>
-  </si>
-  <si>
-    <t>PEEK Black</t>
   </si>
   <si>
     <t>PEEK Natural</t>
@@ -280,8 +286,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,14 +364,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -412,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,27 +442,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,24 +476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,26 +651,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1:F36"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="21.73046875" customWidth="1"/>
-    <col min="4" max="4" width="34.73046875" customWidth="1"/>
-    <col min="5" max="5" width="24.73046875" customWidth="1"/>
-    <col min="6" max="6" width="13.73046875" customWidth="1"/>
-    <col min="7" max="23" width="9.1328125" style="1"/>
+    <col min="1" max="26" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -727,604 +691,928 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2" s="1">
         <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" s="1">
         <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="B4" s="1">
         <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="B5" s="1">
         <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" s="1">
         <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" s="1">
         <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="B8" s="1">
         <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" s="1">
         <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="1">
         <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="B11" s="1">
         <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="1">
+        <v>79</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="B12" s="1">
         <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="F12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" s="1">
         <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="B14" s="1">
         <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="1">
         <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="1">
         <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" s="1">
         <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" s="1">
         <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" s="1">
         <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="1">
         <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
       <c r="B21" s="1">
         <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" s="1">
         <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" s="1">
         <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" s="1">
         <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" s="1">
         <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" s="1">
         <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
       <c r="B27" s="1">
         <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" s="1">
         <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" s="1">
         <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="1">
         <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F30" s="1">
+        <v>79</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I30" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9">
       <c r="B31" s="1">
         <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" s="1">
         <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" s="1">
         <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" s="1">
         <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" s="1">
         <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="1">
+        <v>79</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I35" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9">
       <c r="B36" s="1">
         <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="1">
+        <v>79</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
+++ b/MVP_02/SHOPPING_LISTS/SUPE/SUPE.xlsx
@@ -55,217 +55,217 @@
     <t>20-019369</t>
   </si>
   <si>
+    <t>20-019373</t>
+  </si>
+  <si>
+    <t>20-019374</t>
+  </si>
+  <si>
+    <t>20-019375</t>
+  </si>
+  <si>
+    <t>20-019376</t>
+  </si>
+  <si>
+    <t>20-019377</t>
+  </si>
+  <si>
+    <t>20-019378</t>
+  </si>
+  <si>
+    <t>20-019379</t>
+  </si>
+  <si>
+    <t>20-019383</t>
+  </si>
+  <si>
+    <t>20-019385</t>
+  </si>
+  <si>
+    <t>20-019386</t>
+  </si>
+  <si>
+    <t>20-019387</t>
+  </si>
+  <si>
+    <t>20-019389</t>
+  </si>
+  <si>
+    <t>20-019390</t>
+  </si>
+  <si>
+    <t>20-019391</t>
+  </si>
+  <si>
+    <t>20-019392</t>
+  </si>
+  <si>
+    <t>20-019393</t>
+  </si>
+  <si>
+    <t>20-019396</t>
+  </si>
+  <si>
+    <t>20-019397</t>
+  </si>
+  <si>
+    <t>20-019399</t>
+  </si>
+  <si>
+    <t>20-019400</t>
+  </si>
+  <si>
+    <t>20-019401</t>
+  </si>
+  <si>
+    <t>20-019402</t>
+  </si>
+  <si>
+    <t>20-019403</t>
+  </si>
+  <si>
+    <t>20-019405</t>
+  </si>
+  <si>
+    <t>20-019410</t>
+  </si>
+  <si>
+    <t>20-019471</t>
+  </si>
+  <si>
+    <t>20-019421</t>
+  </si>
+  <si>
+    <t>20-019422</t>
+  </si>
+  <si>
+    <t>20-019469</t>
+  </si>
+  <si>
+    <t>20-019460</t>
+  </si>
+  <si>
+    <t>20-019482</t>
+  </si>
+  <si>
+    <t>20-019526</t>
+  </si>
+  <si>
+    <t>BASE PLATE</t>
+  </si>
+  <si>
+    <t>BACK PLATE</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER</t>
+  </si>
+  <si>
+    <t>BOTTOM PLATE</t>
+  </si>
+  <si>
+    <t>FLOWCELL SLIDER</t>
+  </si>
+  <si>
+    <t>CARTRIDGE PLATFORM</t>
+  </si>
+  <si>
+    <t>GRID HOLDER</t>
+  </si>
+  <si>
+    <t>CARTRIDGE LANDING PAD</t>
+  </si>
+  <si>
+    <t>SET BLOCK</t>
+  </si>
+  <si>
+    <t>CARTRIDGE LANDING LID</t>
+  </si>
+  <si>
+    <t>HORIZONTAL MOTOR PLATE</t>
+  </si>
+  <si>
+    <t>HEATPIPE CLAMP A</t>
+  </si>
+  <si>
+    <t>HEATPIPE CLAMP B</t>
+  </si>
+  <si>
+    <t>HEATSINK</t>
+  </si>
+  <si>
+    <t>FLOWCELL COVER</t>
+  </si>
+  <si>
+    <t>DIVIDER PLATE A</t>
+  </si>
+  <si>
+    <t>DIVIDER PLATE B</t>
+  </si>
+  <si>
+    <t>HEATSINK CLAMP</t>
+  </si>
+  <si>
+    <t>FLOWCELL COVER BRACKET</t>
+  </si>
+  <si>
+    <t>LEFT BRACE CONNECTOR</t>
+  </si>
+  <si>
+    <t>RIGHT BRACE CONNECTOR</t>
+  </si>
+  <si>
+    <t>VALVE PLATE</t>
+  </si>
+  <si>
+    <t>ACTUATOR BRACKET</t>
+  </si>
+  <si>
+    <t>CARTRIDGE BRACKET</t>
+  </si>
+  <si>
+    <t>BOTTOM TRAY B</t>
+  </si>
+  <si>
+    <t>BOTTOM TRAY A</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER CLIP</t>
+  </si>
+  <si>
+    <t>HOUSING CONNECTION A</t>
+  </si>
+  <si>
+    <t>COPPER JACKET</t>
+  </si>
+  <si>
+    <t>MOTOR / RAIL BRACKET A</t>
+  </si>
+  <si>
+    <t>MOTOR / RAIL BRACKET b</t>
+  </si>
+  <si>
+    <t>FLOWCELL</t>
+  </si>
+  <si>
+    <t>HOUSING CONNECTION B</t>
+  </si>
+  <si>
+    <t>PATCH PANEL FOR PSU</t>
+  </si>
+  <si>
+    <t>LOOP HOLDER INTERFACE</t>
+  </si>
+  <si>
+    <t>VITROTEM</t>
+  </si>
+  <si>
     <t>20-019372</t>
   </si>
   <si>
-    <t>20-019373</t>
-  </si>
-  <si>
-    <t>20-019374</t>
-  </si>
-  <si>
-    <t>20-019375</t>
-  </si>
-  <si>
-    <t>20-019376</t>
-  </si>
-  <si>
-    <t>20-019377</t>
-  </si>
-  <si>
-    <t>20-019378</t>
-  </si>
-  <si>
-    <t>20-019379</t>
-  </si>
-  <si>
-    <t>20-019383</t>
-  </si>
-  <si>
-    <t>20-019385</t>
-  </si>
-  <si>
-    <t>20-019386</t>
-  </si>
-  <si>
-    <t>20-019387</t>
-  </si>
-  <si>
-    <t>20-019389</t>
-  </si>
-  <si>
-    <t>20-019390</t>
-  </si>
-  <si>
-    <t>20-019391</t>
-  </si>
-  <si>
-    <t>20-019392</t>
-  </si>
-  <si>
-    <t>20-019393</t>
-  </si>
-  <si>
-    <t>20-019396</t>
-  </si>
-  <si>
-    <t>20-019397</t>
-  </si>
-  <si>
-    <t>20-019399</t>
-  </si>
-  <si>
-    <t>20-019400</t>
-  </si>
-  <si>
-    <t>20-019401</t>
-  </si>
-  <si>
-    <t>20-019402</t>
-  </si>
-  <si>
-    <t>20-019403</t>
-  </si>
-  <si>
-    <t>20-019405</t>
-  </si>
-  <si>
-    <t>20-019410</t>
-  </si>
-  <si>
-    <t>20-019471</t>
-  </si>
-  <si>
-    <t>20-019421</t>
-  </si>
-  <si>
-    <t>20-019422</t>
-  </si>
-  <si>
-    <t>20-019469</t>
-  </si>
-  <si>
-    <t>20-019460</t>
-  </si>
-  <si>
-    <t>20-019482</t>
-  </si>
-  <si>
-    <t>BASE PLATE</t>
-  </si>
-  <si>
-    <t>BACK PLATE</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER INTERFACE</t>
-  </si>
-  <si>
-    <t>BOTTOM PLATE</t>
-  </si>
-  <si>
-    <t>FLOWCELL SLIDER</t>
-  </si>
-  <si>
-    <t>CARTRIDGE PLATFORM</t>
-  </si>
-  <si>
-    <t>GRID HOLDER</t>
-  </si>
-  <si>
-    <t>CARTRIDGE LANDING PAD</t>
-  </si>
-  <si>
-    <t>SET BLOCK</t>
-  </si>
-  <si>
-    <t>CARTRIDGE LANDING LID</t>
-  </si>
-  <si>
-    <t>HORIZONTAL MOTOR PLATE</t>
-  </si>
-  <si>
-    <t>HEATPIPE CLAMP A</t>
-  </si>
-  <si>
-    <t>HEATPIPE CLAMP B</t>
-  </si>
-  <si>
-    <t>HEATSINK</t>
-  </si>
-  <si>
-    <t>FLOWCELL COVER</t>
-  </si>
-  <si>
-    <t>DIVIDER PLATE A</t>
-  </si>
-  <si>
-    <t>DIVIDER PLATE B</t>
-  </si>
-  <si>
-    <t>HEATSINK CLAMP</t>
-  </si>
-  <si>
-    <t>FLOWCELL COVER BRACKET</t>
-  </si>
-  <si>
-    <t>LEFT BRACE CONNECTOR</t>
-  </si>
-  <si>
-    <t>RIGHT BRACE CONNECTOR</t>
-  </si>
-  <si>
-    <t>VALVE PLATE</t>
-  </si>
-  <si>
-    <t>ACTUATOR BRACKET</t>
-  </si>
-  <si>
-    <t>CARTRIDGE BRACKET</t>
-  </si>
-  <si>
-    <t>BOTTOM TRAY B</t>
-  </si>
-  <si>
-    <t>BOTTOM TRAY A</t>
-  </si>
-  <si>
-    <t>LOOP HOLDER CLIP</t>
-  </si>
-  <si>
-    <t>HOUSING CONNECTION A</t>
-  </si>
-  <si>
-    <t>COPPER JACKET</t>
-  </si>
-  <si>
-    <t>MOTOR / RAIL BRACKET A</t>
-  </si>
-  <si>
-    <t>MOTOR / RAIL BRACKET b</t>
-  </si>
-  <si>
-    <t>FLOWCELL</t>
-  </si>
-  <si>
-    <t>HOUSING CONNECTION B</t>
-  </si>
-  <si>
-    <t>PATCH PANEL FOR PSU</t>
-  </si>
-  <si>
-    <t>VITROTEM</t>
-  </si>
-  <si>
     <t>SUPE</t>
   </si>
   <si>
     <t>6061 Alloy</t>
-  </si>
-  <si>
-    <t>1060 Alloy</t>
   </si>
   <si>
     <t>PMMA</t>
@@ -703,7 +703,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="1">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -718,10 +718,10 @@
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -744,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="1">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
@@ -770,10 +770,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="B5" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -796,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>82</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="1">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -822,10 +822,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="1">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
@@ -848,10 +848,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -859,7 +859,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -874,10 +874,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="B9" s="1">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -900,10 +900,10 @@
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="B10" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -926,18 +926,18 @@
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="1">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>18</v>
@@ -952,18 +952,18 @@
         <v>18</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="1">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
@@ -978,10 +978,10 @@
         <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>20</v>
@@ -1004,10 +1004,10 @@
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="1">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>21</v>
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>85</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="1">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>22</v>
@@ -1056,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>85</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="1">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -1082,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17" s="1">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>24</v>
@@ -1108,10 +1108,10 @@
         <v>24</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="18" spans="2:9">
       <c r="B18" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>25</v>
@@ -1134,10 +1134,10 @@
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1">
         <v>1</v>
@@ -1145,7 +1145,7 @@
     </row>
     <row r="19" spans="2:9">
       <c r="B19" s="1">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>26</v>
@@ -1160,10 +1160,10 @@
         <v>26</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1">
         <v>1</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="1">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
@@ -1186,10 +1186,10 @@
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1">
         <v>1</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="1">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>28</v>
@@ -1212,10 +1212,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="22" spans="2:9">
       <c r="B22" s="1">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>29</v>
@@ -1238,10 +1238,10 @@
         <v>29</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1">
         <v>1</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="23" spans="2:9">
       <c r="B23" s="1">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>30</v>
@@ -1264,10 +1264,10 @@
         <v>30</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1">
         <v>1</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="24" spans="2:9">
       <c r="B24" s="1">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>31</v>
@@ -1290,10 +1290,10 @@
         <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I24" s="1">
         <v>1</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="25" spans="2:9">
       <c r="B25" s="1">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -1316,10 +1316,10 @@
         <v>32</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I25" s="1">
         <v>1</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="1">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>33</v>
@@ -1342,10 +1342,10 @@
         <v>33</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I26" s="1">
         <v>1</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="1">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>34</v>
@@ -1368,7 +1368,7 @@
         <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>84</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="1">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>35</v>
@@ -1394,7 +1394,7 @@
         <v>35</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>84</v>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="1">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>36</v>
@@ -1420,18 +1420,18 @@
         <v>36</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>37</v>
@@ -1446,18 +1446,18 @@
         <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I30" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="1">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>38</v>
@@ -1472,10 +1472,10 @@
         <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I31" s="1">
         <v>1</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="1">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1498,10 +1498,10 @@
         <v>39</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I32" s="1">
         <v>1</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="1">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>40</v>
@@ -1524,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I33" s="1">
         <v>1</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>41</v>
@@ -1550,18 +1550,18 @@
         <v>41</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="1">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>42</v>
@@ -1576,18 +1576,18 @@
         <v>42</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="1">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>43</v>
@@ -1599,13 +1599,13 @@
         <v>79</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
